--- a/biology/Biologie cellulaire et moléculaire/Acétylation/Acétylation.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Acétylation/Acétylation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tylation</t>
+          <t>Acétylation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acétylation  est une réaction qui introduit un groupe fonctionnel acétyle dans un composé organique. C'est un cas particulier d'acylation.
 C'est ainsi le processus d'introduction d'un groupe acétyle (–CO-CH3) sur un composé, pour être précis par substitution d'un atome d'hydrogène actif par un groupe acétyle. L'acétylation de l'hydrogène d'un groupe hydroxyle forme donc un groupe  acétoxy : –O–CO–CH3 qui correspond donc à un ester acétate.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tylation</t>
+          <t>Acétylation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’acétylation caractérise une modification post-traductionnelle catalysée par des acétyltransférases (Exemples : la CREB-binding protein (CBP) - [CREB : "cAMP response element binding protein"] et la protéine p300 qui agissent sur les histones.)
 qui consiste en l'ajout de groupe fonctionnel acétyle COCH3 dans une molécule.
